--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H2">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.0335218245363</v>
+        <v>49.32494666666667</v>
       </c>
       <c r="N2">
-        <v>28.0335218245363</v>
+        <v>147.97484</v>
       </c>
       <c r="O2">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="P2">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="Q2">
-        <v>2426.644580799518</v>
+        <v>5475.321327777254</v>
       </c>
       <c r="R2">
-        <v>2426.644580799518</v>
+        <v>49277.89194999528</v>
       </c>
       <c r="S2">
-        <v>0.02874770815840005</v>
+        <v>0.04404077469700635</v>
       </c>
       <c r="T2">
-        <v>0.02874770815840005</v>
+        <v>0.04404077469700633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H3">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I3">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J3">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.63898738676774</v>
+        <v>1.693583</v>
       </c>
       <c r="N3">
-        <v>1.63898738676774</v>
+        <v>5.080749</v>
       </c>
       <c r="O3">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="P3">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="Q3">
-        <v>141.8744275154764</v>
+        <v>187.996373983462</v>
       </c>
       <c r="R3">
-        <v>141.8744275154764</v>
+        <v>1691.967365851158</v>
       </c>
       <c r="S3">
-        <v>0.001680742482696503</v>
+        <v>0.001512149781686132</v>
       </c>
       <c r="T3">
-        <v>0.001680742482696503</v>
+        <v>0.001512149781686132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H4">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I4">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J4">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.7188823899882</v>
+        <v>27.10902833333334</v>
       </c>
       <c r="N4">
-        <v>23.7188823899882</v>
+        <v>81.32708500000001</v>
       </c>
       <c r="O4">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="P4">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="Q4">
-        <v>2053.159705531862</v>
+        <v>3009.240780570897</v>
       </c>
       <c r="R4">
-        <v>2053.159705531862</v>
+        <v>27083.16702513807</v>
       </c>
       <c r="S4">
-        <v>0.02432314830290053</v>
+        <v>0.02420484338587076</v>
       </c>
       <c r="T4">
-        <v>0.02432314830290053</v>
+        <v>0.02420484338587076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H5">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I5">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J5">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.00951535429134</v>
+        <v>7.189177999999999</v>
       </c>
       <c r="N5">
-        <v>7.00951535429134</v>
+        <v>21.567534</v>
       </c>
       <c r="O5">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="P5">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="Q5">
-        <v>606.7593845320733</v>
+        <v>798.0355234562919</v>
       </c>
       <c r="R5">
-        <v>606.7593845320733</v>
+        <v>7182.319711106628</v>
       </c>
       <c r="S5">
-        <v>0.0071880908505981</v>
+        <v>0.006419002755225307</v>
       </c>
       <c r="T5">
-        <v>0.0071880908505981</v>
+        <v>0.006419002755225305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>927.732656174847</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H6">
-        <v>927.732656174847</v>
+        <v>2790.450928</v>
       </c>
       <c r="I6">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J6">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.0335218245363</v>
+        <v>49.32494666666667</v>
       </c>
       <c r="N6">
-        <v>28.0335218245363</v>
+        <v>147.97484</v>
       </c>
       <c r="O6">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="P6">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="Q6">
-        <v>26007.6136642126</v>
+        <v>45879.61439985016</v>
       </c>
       <c r="R6">
-        <v>26007.6136642126</v>
+        <v>412916.5295986515</v>
       </c>
       <c r="S6">
-        <v>0.3081041588994736</v>
+        <v>0.3690329096702705</v>
       </c>
       <c r="T6">
-        <v>0.3081041588994736</v>
+        <v>0.3690329096702705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>927.732656174847</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H7">
-        <v>927.732656174847</v>
+        <v>2790.450928</v>
       </c>
       <c r="I7">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J7">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.63898738676774</v>
+        <v>1.693583</v>
       </c>
       <c r="N7">
-        <v>1.63898738676774</v>
+        <v>5.080749</v>
       </c>
       <c r="O7">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="P7">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="Q7">
-        <v>1520.542121763107</v>
+        <v>1575.286751331675</v>
       </c>
       <c r="R7">
-        <v>1520.542121763107</v>
+        <v>14177.58076198507</v>
       </c>
       <c r="S7">
-        <v>0.01801339244521674</v>
+        <v>0.01267082692418736</v>
       </c>
       <c r="T7">
-        <v>0.01801339244521674</v>
+        <v>0.01267082692418736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>927.732656174847</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H8">
-        <v>927.732656174847</v>
+        <v>2790.450928</v>
       </c>
       <c r="I8">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J8">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.7188823899882</v>
+        <v>27.10902833333334</v>
       </c>
       <c r="N8">
-        <v>23.7188823899882</v>
+        <v>81.32708500000001</v>
       </c>
       <c r="O8">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="P8">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="Q8">
-        <v>22004.78176116255</v>
+        <v>25215.4710899761</v>
       </c>
       <c r="R8">
-        <v>22004.78176116255</v>
+        <v>226939.2398097849</v>
       </c>
       <c r="S8">
-        <v>0.2606838468082392</v>
+        <v>0.2028207688046929</v>
       </c>
       <c r="T8">
-        <v>0.2606838468082392</v>
+        <v>0.2028207688046928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>927.732656174847</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H9">
-        <v>927.732656174847</v>
+        <v>2790.450928</v>
       </c>
       <c r="I9">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J9">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.00951535429134</v>
+        <v>7.189177999999999</v>
       </c>
       <c r="N9">
-        <v>7.00951535429134</v>
+        <v>21.567534</v>
       </c>
       <c r="O9">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="P9">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="Q9">
-        <v>6502.956298135078</v>
+        <v>6687.016140552393</v>
       </c>
       <c r="R9">
-        <v>6502.956298135078</v>
+        <v>60183.14526497154</v>
       </c>
       <c r="S9">
-        <v>0.07703851289339746</v>
+        <v>0.05378704803081718</v>
       </c>
       <c r="T9">
-        <v>0.07703851289339746</v>
+        <v>0.05378704803081717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.5315113984222</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H10">
-        <v>69.5315113984222</v>
+        <v>217.420334</v>
       </c>
       <c r="I10">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J10">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.0335218245363</v>
+        <v>49.32494666666667</v>
       </c>
       <c r="N10">
-        <v>28.0335218245363</v>
+        <v>147.97484</v>
       </c>
       <c r="O10">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="P10">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="Q10">
-        <v>1949.213142280663</v>
+        <v>3574.748792932951</v>
       </c>
       <c r="R10">
-        <v>1949.213142280663</v>
+        <v>32172.73913639656</v>
       </c>
       <c r="S10">
-        <v>0.02309172550285059</v>
+        <v>0.028753509933611</v>
       </c>
       <c r="T10">
-        <v>0.02309172550285059</v>
+        <v>0.028753509933611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.5315113984222</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H11">
-        <v>69.5315113984222</v>
+        <v>217.420334</v>
       </c>
       <c r="I11">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J11">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.63898738676774</v>
+        <v>1.693583</v>
       </c>
       <c r="N11">
-        <v>1.63898738676774</v>
+        <v>5.080749</v>
       </c>
       <c r="O11">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="P11">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="Q11">
-        <v>113.9612701649113</v>
+        <v>122.7397938389073</v>
       </c>
       <c r="R11">
-        <v>113.9612701649113</v>
+        <v>1104.658144550166</v>
       </c>
       <c r="S11">
-        <v>0.001350063936838271</v>
+        <v>0.0009872581503834312</v>
       </c>
       <c r="T11">
-        <v>0.001350063936838271</v>
+        <v>0.0009872581503834312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.5315113984222</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H12">
-        <v>69.5315113984222</v>
+        <v>217.420334</v>
       </c>
       <c r="I12">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J12">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.7188823899882</v>
+        <v>27.10902833333334</v>
       </c>
       <c r="N12">
-        <v>23.7188823899882</v>
+        <v>81.32708500000001</v>
       </c>
       <c r="O12">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="P12">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="Q12">
-        <v>1649.2097412573</v>
+        <v>1964.684664882933</v>
       </c>
       <c r="R12">
-        <v>1649.2097412573</v>
+        <v>17682.16198394639</v>
       </c>
       <c r="S12">
-        <v>0.01953767795613258</v>
+        <v>0.0158029510045027</v>
       </c>
       <c r="T12">
-        <v>0.01953767795613258</v>
+        <v>0.0158029510045027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.5315113984222</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H13">
-        <v>69.5315113984222</v>
+        <v>217.420334</v>
       </c>
       <c r="I13">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J13">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.00951535429134</v>
+        <v>7.189177999999999</v>
       </c>
       <c r="N13">
-        <v>7.00951535429134</v>
+        <v>21.567534</v>
       </c>
       <c r="O13">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="P13">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="Q13">
-        <v>487.3821967543237</v>
+        <v>521.0244939818173</v>
       </c>
       <c r="R13">
-        <v>487.3821967543237</v>
+        <v>4689.220445836356</v>
       </c>
       <c r="S13">
-        <v>0.005773866212116196</v>
+        <v>0.004190863143440419</v>
       </c>
       <c r="T13">
-        <v>0.005773866212116196</v>
+        <v>0.004190863143440419</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>313.698262912969</v>
+        <v>343.5753833333333</v>
       </c>
       <c r="H14">
-        <v>313.698262912969</v>
+        <v>1030.72615</v>
       </c>
       <c r="I14">
-        <v>0.2244670655511401</v>
+        <v>0.2357770937183061</v>
       </c>
       <c r="J14">
-        <v>0.2244670655511401</v>
+        <v>0.235777093718306</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.0335218245363</v>
+        <v>49.32494666666667</v>
       </c>
       <c r="N14">
-        <v>28.0335218245363</v>
+        <v>147.97484</v>
       </c>
       <c r="O14">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="P14">
-        <v>0.4641241868296951</v>
+        <v>0.5781391668179461</v>
       </c>
       <c r="Q14">
-        <v>8794.067099689844</v>
+        <v>16946.83745889622</v>
       </c>
       <c r="R14">
-        <v>8794.067099689844</v>
+        <v>152521.537130066</v>
       </c>
       <c r="S14">
-        <v>0.1041805942689707</v>
+        <v>0.1363119725170583</v>
       </c>
       <c r="T14">
-        <v>0.1041805942689707</v>
+        <v>0.1363119725170582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>313.698262912969</v>
+        <v>343.5753833333333</v>
       </c>
       <c r="H15">
-        <v>313.698262912969</v>
+        <v>1030.72615</v>
       </c>
       <c r="I15">
-        <v>0.2244670655511401</v>
+        <v>0.2357770937183061</v>
       </c>
       <c r="J15">
-        <v>0.2244670655511401</v>
+        <v>0.235777093718306</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.63898738676774</v>
+        <v>1.693583</v>
       </c>
       <c r="N15">
-        <v>1.63898738676774</v>
+        <v>5.080749</v>
       </c>
       <c r="O15">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="P15">
-        <v>0.02713514530457276</v>
+        <v>0.01985053671064022</v>
       </c>
       <c r="Q15">
-        <v>514.1474961653066</v>
+        <v>581.8734284318167</v>
       </c>
       <c r="R15">
-        <v>514.1474961653066</v>
+        <v>5236.86085588635</v>
       </c>
       <c r="S15">
-        <v>0.006090946439821245</v>
+        <v>0.004680301854383294</v>
       </c>
       <c r="T15">
-        <v>0.006090946439821245</v>
+        <v>0.004680301854383294</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>313.698262912969</v>
+        <v>343.5753833333333</v>
       </c>
       <c r="H16">
-        <v>313.698262912969</v>
+        <v>1030.72615</v>
       </c>
       <c r="I16">
-        <v>0.2244670655511401</v>
+        <v>0.2357770937183061</v>
       </c>
       <c r="J16">
-        <v>0.2244670655511401</v>
+        <v>0.235777093718306</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.7188823899882</v>
+        <v>27.10902833333334</v>
       </c>
       <c r="N16">
-        <v>23.7188823899882</v>
+        <v>81.32708500000001</v>
       </c>
       <c r="O16">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="P16">
-        <v>0.3926908317358566</v>
+        <v>0.3177457273252148</v>
       </c>
       <c r="Q16">
-        <v>7440.57220397631</v>
+        <v>9313.994801419196</v>
       </c>
       <c r="R16">
-        <v>7440.57220397631</v>
+        <v>83825.95321277276</v>
       </c>
       <c r="S16">
-        <v>0.08814615866858423</v>
+        <v>0.0749171641301485</v>
       </c>
       <c r="T16">
-        <v>0.08814615866858423</v>
+        <v>0.07491716413014848</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>313.698262912969</v>
+        <v>343.5753833333333</v>
       </c>
       <c r="H17">
-        <v>313.698262912969</v>
+        <v>1030.72615</v>
       </c>
       <c r="I17">
-        <v>0.2244670655511401</v>
+        <v>0.2357770937183061</v>
       </c>
       <c r="J17">
-        <v>0.2244670655511401</v>
+        <v>0.235777093718306</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.00951535429134</v>
+        <v>7.189177999999999</v>
       </c>
       <c r="N17">
-        <v>7.00951535429134</v>
+        <v>21.567534</v>
       </c>
       <c r="O17">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="P17">
-        <v>0.1160498361298756</v>
+        <v>0.08426456914619893</v>
       </c>
       <c r="Q17">
-        <v>2198.872790502978</v>
+        <v>2470.024587201566</v>
       </c>
       <c r="R17">
-        <v>2198.872790502978</v>
+        <v>22230.2212848141</v>
       </c>
       <c r="S17">
-        <v>0.02604936617376385</v>
+        <v>0.01986765521671603</v>
       </c>
       <c r="T17">
-        <v>0.02604936617376385</v>
+        <v>0.01986765521671603</v>
       </c>
     </row>
   </sheetData>
